--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H2">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I2">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J2">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>2.845261213393333</v>
+        <v>0.9939932733766665</v>
       </c>
       <c r="R2">
-        <v>25.60735092054</v>
+        <v>8.945939460389999</v>
       </c>
       <c r="S2">
-        <v>0.002327564889646677</v>
+        <v>0.0007115575027655023</v>
       </c>
       <c r="T2">
-        <v>0.002680203540500798</v>
+        <v>0.0007848904196294057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H3">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I3">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J3">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
-        <v>4.167418220954668</v>
+        <v>1.613435795101333</v>
       </c>
       <c r="R3">
-        <v>37.50676398859201</v>
+        <v>14.520922155912</v>
       </c>
       <c r="S3">
-        <v>0.003409154943633278</v>
+        <v>0.001154990054746307</v>
       </c>
       <c r="T3">
-        <v>0.003925660328820623</v>
+        <v>0.001274023006172102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H4">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I4">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J4">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>4.181291066666667E-05</v>
+        <v>0.019283925832</v>
       </c>
       <c r="R4">
-        <v>0.0003763161960000001</v>
+        <v>0.173555332488</v>
       </c>
       <c r="S4">
-        <v>3.420503619968069E-08</v>
+        <v>1.380454221980773E-05</v>
       </c>
       <c r="T4">
-        <v>3.938728390908947E-08</v>
+        <v>1.522723447309007E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H5">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I5">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J5">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>4.303654289575333</v>
+        <v>0.9151742298036667</v>
       </c>
       <c r="R5">
-        <v>25.821925737452</v>
+        <v>5.491045378822001</v>
       </c>
       <c r="S5">
-        <v>0.003520602809485559</v>
+        <v>0.0006551343022093791</v>
       </c>
       <c r="T5">
-        <v>0.002702662098817682</v>
+        <v>0.0004817681732221134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.130078666666667</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H6">
-        <v>3.390236</v>
+        <v>3.013073</v>
       </c>
       <c r="I6">
-        <v>0.009293988592650694</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J6">
-        <v>0.009350747007447273</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.04477936716666667</v>
+        <v>2.281805204688333</v>
       </c>
       <c r="R6">
-        <v>0.4030143045</v>
+        <v>20.536246842195</v>
       </c>
       <c r="S6">
-        <v>3.663174484898236E-05</v>
+        <v>0.001633447284537198</v>
       </c>
       <c r="T6">
-        <v>4.218165202426135E-05</v>
+        <v>0.001801789904006436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J7">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>2.528726537038333</v>
+        <v>3.703793871950666</v>
       </c>
       <c r="R7">
-        <v>22.758538833345</v>
+        <v>33.334144847556</v>
       </c>
       <c r="S7">
-        <v>0.00206862381401837</v>
+        <v>0.002651388484079507</v>
       </c>
       <c r="T7">
-        <v>0.002382031493497019</v>
+        <v>0.0029246398383569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J8">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>3.703793871950667</v>
+        <v>0.04426806851600001</v>
       </c>
       <c r="R8">
-        <v>33.334144847556</v>
+        <v>0.398412616644</v>
       </c>
       <c r="S8">
-        <v>0.003029887215367294</v>
+        <v>3.168962721296073E-05</v>
       </c>
       <c r="T8">
-        <v>0.003488931491477449</v>
+        <v>3.495555131442015E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J9">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>3.716123366666668E-05</v>
+        <v>2.100868664501834</v>
       </c>
       <c r="R9">
-        <v>0.000334451103</v>
+        <v>12.605211987011</v>
       </c>
       <c r="S9">
-        <v>3.039973353987171E-08</v>
+        <v>0.00150392251194314</v>
       </c>
       <c r="T9">
-        <v>3.500545734568682E-08</v>
+        <v>0.001105944229760232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.004357666666667</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H10">
-        <v>3.013073</v>
+        <v>298.741676</v>
       </c>
       <c r="I10">
-        <v>0.00826003443147433</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J10">
-        <v>0.008310478485264795</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8082785</v>
+        <v>2.271905</v>
       </c>
       <c r="N10">
-        <v>7.616557</v>
+        <v>6.815715</v>
       </c>
       <c r="O10">
-        <v>0.3788042963889053</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P10">
-        <v>0.2890316780750441</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q10">
-        <v>3.824873708276834</v>
+        <v>226.2375691375933</v>
       </c>
       <c r="R10">
-        <v>22.949242249661</v>
+        <v>2036.13812223834</v>
       </c>
       <c r="S10">
-        <v>0.003128936530962765</v>
+        <v>0.1619538522433049</v>
       </c>
       <c r="T10">
-        <v>0.002401991542202634</v>
+        <v>0.1786447708776926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.004357666666667</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H11">
-        <v>3.013073</v>
+        <v>298.741676</v>
       </c>
       <c r="I11">
-        <v>0.00826003443147433</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J11">
-        <v>0.008310478485264795</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.039625</v>
+        <v>3.687724</v>
       </c>
       <c r="N11">
-        <v>0.118875</v>
+        <v>11.063172</v>
       </c>
       <c r="O11">
-        <v>0.003941444997893504</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P11">
-        <v>0.004511046228784326</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q11">
-        <v>0.03979767254166667</v>
+        <v>367.2256161284746</v>
       </c>
       <c r="R11">
-        <v>0.358179052875</v>
+        <v>3305.030545156272</v>
       </c>
       <c r="S11">
-        <v>3.255647139236261E-05</v>
+        <v>0.2628811978538227</v>
       </c>
       <c r="T11">
-        <v>3.748895263034703E-05</v>
+        <v>0.2899736604480241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H12">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I12">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J12">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.517755</v>
+        <v>0.044076</v>
       </c>
       <c r="N12">
-        <v>7.553265</v>
+        <v>0.132228</v>
       </c>
       <c r="O12">
-        <v>0.2504376744648923</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P12">
-        <v>0.2866298851167919</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q12">
-        <v>171.6493327295017</v>
+        <v>4.389112703792001</v>
       </c>
       <c r="R12">
-        <v>1544.843994565515</v>
+        <v>39.502014334128</v>
       </c>
       <c r="S12">
-        <v>0.1404176735379541</v>
+        <v>0.003141979084282092</v>
       </c>
       <c r="T12">
-        <v>0.161691709408127</v>
+        <v>0.003465790568357912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H13">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I13">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J13">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.687724000000001</v>
+        <v>2.0917535</v>
       </c>
       <c r="N13">
-        <v>11.063172</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O13">
-        <v>0.3668129038085003</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P13">
-        <v>0.4198231783721755</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q13">
-        <v>251.4126131774414</v>
+        <v>208.2979821229553</v>
       </c>
       <c r="R13">
-        <v>2262.713518596972</v>
+        <v>1249.787892737732</v>
       </c>
       <c r="S13">
-        <v>0.2056679957859595</v>
+        <v>0.1491116649984994</v>
       </c>
       <c r="T13">
-        <v>0.2368278078627095</v>
+        <v>0.1096527142757911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.17555033333333</v>
+        <v>4.1363315</v>
       </c>
       <c r="H14">
-        <v>204.526651</v>
+        <v>8.272663</v>
       </c>
       <c r="I14">
-        <v>0.5606890969499025</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J14">
-        <v>0.5641132268613344</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7E-05</v>
+        <v>2.271905</v>
       </c>
       <c r="N14">
-        <v>0.000111</v>
+        <v>6.815715</v>
       </c>
       <c r="O14">
-        <v>3.680339808758603E-06</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P14">
-        <v>4.212207204164545E-06</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q14">
-        <v>0.002522495362333334</v>
+        <v>9.3973522165075</v>
       </c>
       <c r="R14">
-        <v>0.022702458261</v>
+        <v>56.384113299045</v>
       </c>
       <c r="S14">
-        <v>2.063526403841638E-06</v>
+        <v>0.006727164715180155</v>
       </c>
       <c r="T14">
-        <v>2.376161798149821E-06</v>
+        <v>0.004946976283896075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.17555033333333</v>
+        <v>4.1363315</v>
       </c>
       <c r="H15">
-        <v>204.526651</v>
+        <v>8.272663</v>
       </c>
       <c r="I15">
-        <v>0.5606890969499025</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J15">
-        <v>0.5641132268613344</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.8082785</v>
+        <v>3.687724</v>
       </c>
       <c r="N15">
-        <v>7.616557</v>
+        <v>11.063172</v>
       </c>
       <c r="O15">
-        <v>0.3788042963889053</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P15">
-        <v>0.2890316780750441</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q15">
-        <v>259.6314825601012</v>
+        <v>15.253648944506</v>
       </c>
       <c r="R15">
-        <v>1557.788895360607</v>
+        <v>91.521893667036</v>
       </c>
       <c r="S15">
-        <v>0.2123914388630386</v>
+        <v>0.01091943843255903</v>
       </c>
       <c r="T15">
-        <v>0.1630465925840595</v>
+        <v>0.008029861798602657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.17555033333333</v>
+        <v>4.1363315</v>
       </c>
       <c r="H16">
-        <v>204.526651</v>
+        <v>8.272663</v>
       </c>
       <c r="I16">
-        <v>0.5606890969499025</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J16">
-        <v>0.5641132268613344</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.039625</v>
+        <v>0.044076</v>
       </c>
       <c r="N16">
-        <v>0.118875</v>
+        <v>0.132228</v>
       </c>
       <c r="O16">
-        <v>0.003941444997893504</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P16">
-        <v>0.004511046228784326</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q16">
-        <v>2.701456181958334</v>
+        <v>0.182312947194</v>
       </c>
       <c r="R16">
-        <v>24.313105637625</v>
+        <v>1.093877683164</v>
       </c>
       <c r="S16">
-        <v>0.002209925236546619</v>
+        <v>0.0001305100838222904</v>
       </c>
       <c r="T16">
-        <v>0.002544740844640179</v>
+        <v>9.597361099561972E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H17">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I17">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J17">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.517755</v>
+        <v>2.0917535</v>
       </c>
       <c r="N17">
-        <v>7.553265</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O17">
-        <v>0.2504376744648923</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P17">
-        <v>0.2866298851167919</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q17">
-        <v>5.574747659369999</v>
+        <v>8.652185892285251</v>
       </c>
       <c r="R17">
-        <v>33.44848595622</v>
+        <v>34.60874356914101</v>
       </c>
       <c r="S17">
-        <v>0.004560420273369058</v>
+        <v>0.006193731840924068</v>
       </c>
       <c r="T17">
-        <v>0.003500899048965803</v>
+        <v>0.003036469381790938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.214174</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H18">
-        <v>4.428348</v>
+        <v>202.194008</v>
       </c>
       <c r="I18">
-        <v>0.01820980123343368</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J18">
-        <v>0.01221400569427471</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.687724000000001</v>
+        <v>2.271905</v>
       </c>
       <c r="N18">
-        <v>11.063172</v>
+        <v>6.815715</v>
       </c>
       <c r="O18">
-        <v>0.3668129038085003</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P18">
-        <v>0.4198231783721755</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q18">
-        <v>8.165262599976002</v>
+        <v>153.1218592484133</v>
       </c>
       <c r="R18">
-        <v>48.99157559985601</v>
+        <v>1378.09673323572</v>
       </c>
       <c r="S18">
-        <v>0.006679590068211418</v>
+        <v>0.1096134256678456</v>
       </c>
       <c r="T18">
-        <v>0.005127722691226259</v>
+        <v>0.1209101546046168</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.214174</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H19">
-        <v>4.428348</v>
+        <v>202.194008</v>
       </c>
       <c r="I19">
-        <v>0.01820980123343368</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J19">
-        <v>0.01221400569427471</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.7E-05</v>
+        <v>3.687724</v>
       </c>
       <c r="N19">
-        <v>0.000111</v>
+        <v>11.063172</v>
       </c>
       <c r="O19">
-        <v>3.680339808758603E-06</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P19">
-        <v>4.212207204164545E-06</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q19">
-        <v>8.192443800000001E-05</v>
+        <v>248.5452319859307</v>
       </c>
       <c r="R19">
-        <v>0.000491546628</v>
+        <v>2236.907087873376</v>
       </c>
       <c r="S19">
-        <v>6.701825638898748E-08</v>
+        <v>0.1779229591719416</v>
       </c>
       <c r="T19">
-        <v>5.144792277713071E-08</v>
+        <v>0.1962596494920148</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.214174</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H20">
-        <v>4.428348</v>
+        <v>202.194008</v>
       </c>
       <c r="I20">
-        <v>0.01820980123343368</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J20">
-        <v>0.01221400569427471</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.8082785</v>
+        <v>0.044076</v>
       </c>
       <c r="N20">
-        <v>7.616557</v>
+        <v>0.132228</v>
       </c>
       <c r="O20">
-        <v>0.3788042963889053</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P20">
-        <v>0.2890316780750441</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q20">
-        <v>8.432191239459</v>
+        <v>2.970634365536001</v>
       </c>
       <c r="R20">
-        <v>33.728764957836</v>
+        <v>26.735709289824</v>
       </c>
       <c r="S20">
-        <v>0.006897950943612665</v>
+        <v>0.002126550779956011</v>
       </c>
       <c r="T20">
-        <v>0.003530234561834363</v>
+        <v>0.002345712507500574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.214174</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H21">
-        <v>4.428348</v>
+        <v>202.194008</v>
       </c>
       <c r="I21">
-        <v>0.01820980123343368</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J21">
-        <v>0.01221400569427471</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.039625</v>
+        <v>2.0917535</v>
       </c>
       <c r="N21">
-        <v>0.118875</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O21">
-        <v>0.003941444997893504</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P21">
-        <v>0.004511046228784326</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q21">
-        <v>0.08773664475</v>
+        <v>140.9800079710094</v>
       </c>
       <c r="R21">
-        <v>0.5264198685</v>
+        <v>845.8800478260561</v>
       </c>
       <c r="S21">
-        <v>7.177292998415214E-05</v>
+        <v>0.1009215908181486</v>
       </c>
       <c r="T21">
-        <v>5.509794432550822E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>49.06827033333334</v>
-      </c>
-      <c r="H22">
-        <v>147.204811</v>
-      </c>
-      <c r="I22">
-        <v>0.4035470787925388</v>
-      </c>
-      <c r="J22">
-        <v>0.4060115419516788</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.517755</v>
-      </c>
-      <c r="N22">
-        <v>7.553265</v>
-      </c>
-      <c r="O22">
-        <v>0.2504376744648923</v>
-      </c>
-      <c r="P22">
-        <v>0.2866298851167919</v>
-      </c>
-      <c r="Q22">
-        <v>123.5418829731017</v>
-      </c>
-      <c r="R22">
-        <v>1111.876946757915</v>
-      </c>
-      <c r="S22">
-        <v>0.1010633919499041</v>
-      </c>
-      <c r="T22">
-        <v>0.1163750416257012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>49.06827033333334</v>
-      </c>
-      <c r="H23">
-        <v>147.204811</v>
-      </c>
-      <c r="I23">
-        <v>0.4035470787925388</v>
-      </c>
-      <c r="J23">
-        <v>0.4060115419516788</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.687724000000001</v>
-      </c>
-      <c r="N23">
-        <v>11.063172</v>
-      </c>
-      <c r="O23">
-        <v>0.3668129038085003</v>
-      </c>
-      <c r="P23">
-        <v>0.4198231783721755</v>
-      </c>
-      <c r="Q23">
-        <v>180.9502381467214</v>
-      </c>
-      <c r="R23">
-        <v>1628.552143320492</v>
-      </c>
-      <c r="S23">
-        <v>0.1480262757953288</v>
-      </c>
-      <c r="T23">
-        <v>0.1704530559979416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>49.06827033333334</v>
-      </c>
-      <c r="H24">
-        <v>147.204811</v>
-      </c>
-      <c r="I24">
-        <v>0.4035470787925388</v>
-      </c>
-      <c r="J24">
-        <v>0.4060115419516788</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>3.7E-05</v>
-      </c>
-      <c r="N24">
-        <v>0.000111</v>
-      </c>
-      <c r="O24">
-        <v>3.680339808758603E-06</v>
-      </c>
-      <c r="P24">
-        <v>4.212207204164545E-06</v>
-      </c>
-      <c r="Q24">
-        <v>0.001815526002333334</v>
-      </c>
-      <c r="R24">
-        <v>0.016339734021</v>
-      </c>
-      <c r="S24">
-        <v>1.485190378788425E-06</v>
-      </c>
-      <c r="T24">
-        <v>1.710204741982817E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>49.06827033333334</v>
-      </c>
-      <c r="H25">
-        <v>147.204811</v>
-      </c>
-      <c r="I25">
-        <v>0.4035470787925388</v>
-      </c>
-      <c r="J25">
-        <v>0.4060115419516788</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.8082785</v>
-      </c>
-      <c r="N25">
-        <v>7.616557</v>
-      </c>
-      <c r="O25">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P25">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q25">
-        <v>186.8656389426212</v>
-      </c>
-      <c r="R25">
-        <v>1121.193833655727</v>
-      </c>
-      <c r="S25">
-        <v>0.1528653672418058</v>
-      </c>
-      <c r="T25">
-        <v>0.1173501972881299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>49.06827033333334</v>
-      </c>
-      <c r="H26">
-        <v>147.204811</v>
-      </c>
-      <c r="I26">
-        <v>0.4035470787925388</v>
-      </c>
-      <c r="J26">
-        <v>0.4060115419516788</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.039625</v>
-      </c>
-      <c r="N26">
-        <v>0.118875</v>
-      </c>
-      <c r="O26">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P26">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q26">
-        <v>1.944330211958333</v>
-      </c>
-      <c r="R26">
-        <v>17.498971907625</v>
-      </c>
-      <c r="S26">
-        <v>0.001590558615121388</v>
-      </c>
-      <c r="T26">
-        <v>0.00183153683516403</v>
+        <v>0.07421502779378199</v>
       </c>
     </row>
   </sheetData>
